--- a/templates/account_book_template.xlsx
+++ b/templates/account_book_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luanp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{469A530C-93ED-4B59-9029-0B0DECF30A3E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2370689D-7F3C-4434-87FE-019E4EED1C0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99782DDB-5708-4770-A4CD-02AF0EBBF913}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.21875" customWidth="1"/>
